--- a/calibration/hydrophones/653007HTI92WB_manualSensitivity_2025-06-30.xlsx
+++ b/calibration/hydrophones/653007HTI92WB_manualSensitivity_2025-06-30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selene.fregosi\Documents\GitHub\glider-lab\calibration\hydrophones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E792C6C4-1503-4736-95EE-A5C7C2AD0E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CF24C3-BF7A-426B-9C5A-4631B2ACD687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="1605" windowWidth="25875" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>HTI92WB</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>nominal -165dB</t>
+  </si>
+  <si>
+    <t>@3kHz -162.5</t>
   </si>
 </sst>
 </file>
@@ -89,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,18 +920,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,8 +945,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -949,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -957,7 +965,7 @@
         <v>-174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>6.3</v>
       </c>
@@ -965,7 +973,7 @@
         <v>-173.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>7.9</v>
       </c>
@@ -973,7 +981,7 @@
         <v>-171.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -981,7 +989,7 @@
         <v>-170.3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12.6</v>
       </c>
@@ -989,7 +997,7 @@
         <v>-169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15.9</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>-167.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>-166.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25.2</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>-165.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>31.7</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>-165.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40</v>
       </c>
@@ -1029,7 +1037,7 @@
         <v>-164.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>50.4</v>
       </c>
@@ -1037,7 +1045,7 @@
         <v>-164.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>63.5</v>
       </c>
@@ -1045,7 +1053,7 @@
         <v>-164.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>80</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>-164.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>100.8</v>
       </c>
